--- a/Results_Saving/Small_Scale_Network/topo_star.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_star.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fymeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRRG717\Desktop\Service_availability_evaluating_WMN\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE24F3F-A55F-4AF4-93B8-56836DDD4210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CAB16-6836-42E0-842D-24BD13B09913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,31 +34,31 @@
     <t>fail_rate</t>
   </si>
   <si>
-    <t>(1, 3)</t>
+    <t>(0, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(2, 3)</t>
+    <t>(1, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(4, 3)</t>
+    <t>(3, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(5, 3)</t>
+    <t>(4, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(6, 3)</t>
+    <t>(5, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(7, 3)</t>
+    <t>(6, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(8, 3)</t>
+    <t>(7, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
